--- a/reference/AAIS-AU-Reporting-Reference.xlsx
+++ b/reference/AAIS-AU-Reporting-Reference.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peterantley/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kennethwsayers/Development/linux-foundation/branches/develop/openidl-etl-develop/reference/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{114BA8A6-0030-7D4D-9F2B-E7C16C86A497}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EAE247C-22E5-CA43-8E5F-36AB0894415C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1240" yWindow="500" windowWidth="30700" windowHeight="19140" activeTab="4" xr2:uid="{12A68F84-962A-7343-836B-D6FA764C64E9}"/>
+    <workbookView xWindow="-35800" yWindow="-20040" windowWidth="30700" windowHeight="19140" activeTab="1" xr2:uid="{12A68F84-962A-7343-836B-D6FA764C64E9}"/>
   </bookViews>
   <sheets>
     <sheet name="Attributes" sheetId="1" r:id="rId1"/>
@@ -669,12 +669,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -692,18 +686,24 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1370,7 +1370,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{817BA626-85E2-064B-83F6-AF4E21DC269E}">
   <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
@@ -2013,10 +2013,23 @@
   <dimension ref="A1:L1442"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P29" sqref="P29"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
@@ -52699,7 +52712,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2A1F6BC-3351-B049-A4DC-27C6D0134BEA}">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
@@ -52773,10 +52786,10 @@
       <c r="C4" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="22" t="s">
         <v>121</v>
       </c>
       <c r="F4" s="9"/>
@@ -52791,8 +52804,8 @@
       <c r="C5" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
       <c r="F5" s="9"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -52831,20 +52844,20 @@
       </c>
       <c r="F7" s="9"/>
     </row>
-    <row r="8" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
         <v>133</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="E8" s="11" t="s">
         <v>137</v>
       </c>
       <c r="F8" s="9" t="s">
@@ -52876,7 +52889,7 @@
       <c r="B10" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="11" t="s">
         <v>144</v>
       </c>
       <c r="D10" s="10" t="s">
@@ -52895,7 +52908,7 @@
       <c r="C11" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="D11" s="15"/>
+      <c r="D11" s="13"/>
       <c r="E11" s="9" t="s">
         <v>148</v>
       </c>
@@ -52911,7 +52924,7 @@
       <c r="C12" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="D12" s="15"/>
+      <c r="D12" s="13"/>
       <c r="E12" s="9" t="s">
         <v>152</v>
       </c>
@@ -52927,7 +52940,7 @@
       <c r="C13" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="D13" s="15"/>
+      <c r="D13" s="13"/>
       <c r="E13" s="9" t="s">
         <v>156</v>
       </c>
@@ -52943,7 +52956,7 @@
       <c r="C14" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="D14" s="15"/>
+      <c r="D14" s="13"/>
       <c r="E14" s="9" t="s">
         <v>160</v>
       </c>
@@ -52962,8 +52975,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09E6A9D5-DF91-394F-808E-CEC244C13CC3}">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -52977,258 +52990,258 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="14" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="16" t="s">
         <v>161</v>
       </c>
-      <c r="F2" s="18"/>
+      <c r="F2" s="16"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="18"/>
-      <c r="B3" s="18" t="s">
+      <c r="A3" s="16"/>
+      <c r="B3" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="16" t="s">
         <v>162</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="16" t="s">
         <v>163</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="16" t="s">
         <v>164</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="D6" s="20" t="s">
+      <c r="D6" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="E6" s="21" t="s">
+      <c r="E6" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="F6" s="18"/>
+      <c r="F6" s="16"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="16" t="s">
         <v>122</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="18"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="16"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="D8" s="19" t="s">
+      <c r="D8" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="E8" s="18" t="s">
+      <c r="E8" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="F8" s="18"/>
+      <c r="F8" s="16"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="D9" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="E9" s="18" t="s">
+      <c r="E9" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="F9" s="18"/>
-    </row>
-    <row r="10" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A10" s="18" t="s">
+      <c r="F9" s="16"/>
+    </row>
+    <row r="10" spans="1:6" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="16" t="s">
         <v>134</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="C10" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="D10" s="23" t="s">
+      <c r="D10" s="19" t="s">
         <v>136</v>
       </c>
-      <c r="E10" s="22" t="s">
+      <c r="E10" s="18" t="s">
         <v>137</v>
       </c>
-      <c r="F10" s="18" t="s">
+      <c r="F10" s="16" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="16" t="s">
         <v>140</v>
       </c>
-      <c r="D11" s="19" t="s">
+      <c r="D11" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="E11" s="18" t="s">
+      <c r="E11" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="F11" s="18"/>
+      <c r="F11" s="16"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="16" t="s">
         <v>145</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="16" t="s">
         <v>146</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="16" t="s">
         <v>147</v>
       </c>
-      <c r="D12" s="24"/>
-      <c r="E12" s="18" t="s">
+      <c r="D12" s="20"/>
+      <c r="E12" s="16" t="s">
         <v>148</v>
       </c>
-      <c r="F12" s="18"/>
+      <c r="F12" s="16"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="18" t="s">
+      <c r="A13" s="16" t="s">
         <v>149</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="16" t="s">
         <v>150</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="16" t="s">
         <v>151</v>
       </c>
-      <c r="D13" s="24"/>
-      <c r="E13" s="18" t="s">
+      <c r="D13" s="20"/>
+      <c r="E13" s="16" t="s">
         <v>152</v>
       </c>
-      <c r="F13" s="18"/>
+      <c r="F13" s="16"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="18" t="s">
+      <c r="A14" s="16" t="s">
         <v>153</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="16" t="s">
         <v>154</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="16" t="s">
         <v>155</v>
       </c>
-      <c r="D14" s="24"/>
-      <c r="E14" s="18" t="s">
+      <c r="D14" s="20"/>
+      <c r="E14" s="16" t="s">
         <v>156</v>
       </c>
-      <c r="F14" s="18"/>
+      <c r="F14" s="16"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="18" t="s">
+      <c r="A15" s="16" t="s">
         <v>157</v>
       </c>
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="16" t="s">
         <v>158</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="16" t="s">
         <v>159</v>
       </c>
-      <c r="D15" s="24"/>
-      <c r="E15" s="18" t="s">
+      <c r="D15" s="20"/>
+      <c r="E15" s="16" t="s">
         <v>160</v>
       </c>
-      <c r="F15" s="18"/>
+      <c r="F15" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="2">
